--- a/biology/Botanique/Croton_kongensis/Croton_kongensis.xlsx
+++ b/biology/Botanique/Croton_kongensis/Croton_kongensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton kongensis est une espèce de plantes à fleurs du genre Croton et de la famille Euphorbiaceae qui se rencontre en Birmanie, en Chine (dans le Hainan et le Yunnan), au Laos, en Thaïlande et au Viêt Nam, à une altitude maximale de 2 000 m.
 Il a pour synonyme :
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton kongensis est un arbuste d'un à cinq mètres de haut, aux feuilles alternes ou en faux verticilles, à l'inflorescence terminale, densiflore ; aux fleurs petites, bisexuées ou unisexuées, blanchâtres ; à capsule tricoque ; aux graines ovoïdes d'un brun roux.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce connue à l'état sauvage ou cultivé dans les régions tropicales.
 </t>
@@ -575,9 +591,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux diterpènes possédant une action anti-malaria ont pu être isolés de Croton kongensis[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux diterpènes possédant une action anti-malaria ont pu être isolés de Croton kongensis.
 </t>
         </is>
       </c>
